--- a/Tbill_Returns_2023.xlsx
+++ b/Tbill_Returns_2023.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Press Release ID</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -28,43 +31,49 @@
     <t>364 DTB Yield</t>
   </si>
   <si>
-    <t>04-01-2023</t>
-  </si>
-  <si>
-    <t>11-01-2023</t>
-  </si>
-  <si>
-    <t>18-01-2023</t>
-  </si>
-  <si>
-    <t>25-01-2023</t>
-  </si>
-  <si>
-    <t>01-02-2023</t>
-  </si>
-  <si>
-    <t>08-02-2023</t>
-  </si>
-  <si>
-    <t>15-02-2023</t>
-  </si>
-  <si>
-    <t>22-02-2023</t>
-  </si>
-  <si>
-    <t>01-03-2023</t>
-  </si>
-  <si>
-    <t>08-03-2023</t>
-  </si>
-  <si>
-    <t>15-03-2023</t>
-  </si>
-  <si>
-    <t>23-03-2023</t>
-  </si>
-  <si>
-    <t>29-03-2023</t>
+    <t>04 Jan, 2023</t>
+  </si>
+  <si>
+    <t>11 Jan, 2023</t>
+  </si>
+  <si>
+    <t>18 Jan, 2023</t>
+  </si>
+  <si>
+    <t>25 Jan, 2023</t>
+  </si>
+  <si>
+    <t>01 Feb, 2023</t>
+  </si>
+  <si>
+    <t>08 Feb, 2023</t>
+  </si>
+  <si>
+    <t>15 Feb, 2023</t>
+  </si>
+  <si>
+    <t>22 Feb, 2023</t>
+  </si>
+  <si>
+    <t>01 Mar, 2023</t>
+  </si>
+  <si>
+    <t>08 Mar, 2023</t>
+  </si>
+  <si>
+    <t>15 Mar, 2023</t>
+  </si>
+  <si>
+    <t>23 Mar, 2023</t>
+  </si>
+  <si>
+    <t>29 Mar, 2023</t>
+  </si>
+  <si>
+    <t>05 Apr, 2023</t>
+  </si>
+  <si>
+    <t>12 Apr, 2023</t>
   </si>
   <si>
     <t xml:space="preserve"> 6.3571%</t>
@@ -103,7 +112,10 @@
     <t xml:space="preserve"> 6.7366%</t>
   </si>
   <si>
-    <t>NA</t>
+    <t xml:space="preserve"> 6.9192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7300%</t>
   </si>
   <si>
     <t xml:space="preserve"> 6.7801%</t>
@@ -145,6 +157,12 @@
     <t xml:space="preserve"> 7.2820%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 7.1797%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9796%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9249%</t>
   </si>
   <si>
@@ -182,6 +200,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 7.3064%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.2187%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0197%</t>
   </si>
 </sst>
 </file>
@@ -539,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,187 +582,260 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>54990</v>
+      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>55028</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>55065</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>55106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>55144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>55182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>55220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>55265</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>55306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>55340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>55369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>55399</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>55430</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>55464</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>55503</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
+      <c r="E16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2023.xlsx
+++ b/Tbill_Returns_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -76,6 +76,12 @@
     <t>12 Apr, 2023</t>
   </si>
   <si>
+    <t>19 Apr, 2023</t>
+  </si>
+  <si>
+    <t>26 Apr, 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.3571%</t>
   </si>
   <si>
@@ -118,6 +124,12 @@
     <t xml:space="preserve"> 6.7300%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.7764%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8225%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.7801%</t>
   </si>
   <si>
@@ -163,6 +175,12 @@
     <t xml:space="preserve"> 6.9796%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.9513%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9723%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9249%</t>
   </si>
   <si>
@@ -206,6 +224,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 7.0197%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0094%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0040%</t>
   </si>
 </sst>
 </file>
@@ -563,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,13 +618,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -611,13 +635,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -628,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -645,13 +669,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -662,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -679,13 +703,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -696,13 +720,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -713,13 +737,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -730,13 +754,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -747,13 +771,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -764,13 +788,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -781,13 +805,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -798,10 +822,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -812,13 +836,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -829,13 +853,47 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>55532</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>55575</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2023.xlsx
+++ b/Tbill_Returns_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -82,6 +82,9 @@
     <t>26 Apr, 2023</t>
   </si>
   <si>
+    <t>03 May, 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.3571%</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t xml:space="preserve"> 6.8225%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.8984%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.7801%</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t xml:space="preserve"> 6.9723%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.9889%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9249%</t>
   </si>
   <si>
@@ -230,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 7.0040%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9955%</t>
   </si>
 </sst>
 </file>
@@ -587,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,13 +630,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -635,13 +647,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -652,13 +664,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -669,13 +681,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -686,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -703,13 +715,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -720,13 +732,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -737,13 +749,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -754,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -771,13 +783,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -788,13 +800,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -805,13 +817,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -822,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -836,13 +848,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -853,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -870,13 +882,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -887,13 +899,30 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>55620</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2023.xlsx
+++ b/Tbill_Returns_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -85,6 +85,27 @@
     <t>03 May, 2023</t>
   </si>
   <si>
+    <t>10 May, 2023</t>
+  </si>
+  <si>
+    <t>17 May, 2023</t>
+  </si>
+  <si>
+    <t>24 May, 2023</t>
+  </si>
+  <si>
+    <t>31 May, 2023</t>
+  </si>
+  <si>
+    <t>07 Jun, 2023</t>
+  </si>
+  <si>
+    <t>14 Jun, 2023</t>
+  </si>
+  <si>
+    <t>21 Jun, 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.3571%</t>
   </si>
   <si>
@@ -136,6 +157,27 @@
     <t xml:space="preserve"> 6.8984%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.9482%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8391%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7677%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7839%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7545%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7876%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7370%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.7801%</t>
   </si>
   <si>
@@ -190,6 +232,27 @@
     <t xml:space="preserve"> 6.9889%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 7.0292%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9685%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8998%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8963%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8588%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9098%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8989%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9249%</t>
   </si>
   <si>
@@ -242,6 +305,27 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.9955%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0182%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9554%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8850%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8941%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8570%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9051%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8901%</t>
   </si>
 </sst>
 </file>
@@ -599,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -647,13 +731,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -664,13 +748,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -681,13 +765,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -698,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -715,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -732,13 +816,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -749,13 +833,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -766,13 +850,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -783,13 +867,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -800,13 +884,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -817,13 +901,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -834,10 +918,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -848,13 +932,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -865,13 +949,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -882,13 +966,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -899,13 +983,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -916,13 +1000,132 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>55654</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>55690</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>55726</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>55758</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>55809</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>55852</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>55893</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2023.xlsx
+++ b/Tbill_Returns_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -121,6 +121,18 @@
     <t>26 Jul, 2023</t>
   </si>
   <si>
+    <t>02 Aug, 2023</t>
+  </si>
+  <si>
+    <t>09 Aug, 2023</t>
+  </si>
+  <si>
+    <t>17 Aug, 2023</t>
+  </si>
+  <si>
+    <t>23 Aug, 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.3571%</t>
   </si>
   <si>
@@ -205,6 +217,18 @@
     <t xml:space="preserve"> 6.7138%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.7188%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7487%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8781%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8569%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.7801%</t>
   </si>
   <si>
@@ -295,6 +319,18 @@
     <t xml:space="preserve"> 6.8609%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.8740%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9094%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0385%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0400%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9249%</t>
   </si>
   <si>
@@ -383,6 +419,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.8925%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9314%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9605%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0692%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0548%</t>
   </si>
 </sst>
 </file>
@@ -740,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,13 +819,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -788,13 +836,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -805,13 +853,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -822,13 +870,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -839,13 +887,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -856,13 +904,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -873,13 +921,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -890,13 +938,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -907,13 +955,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -924,13 +972,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -941,13 +989,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -958,13 +1006,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -975,10 +1023,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -989,13 +1037,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1006,13 +1054,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1023,13 +1071,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1040,13 +1088,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1057,13 +1105,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1074,13 +1122,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1091,13 +1139,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1108,13 +1156,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1125,13 +1173,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1142,13 +1190,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1159,13 +1207,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1176,13 +1224,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1193,13 +1241,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1210,13 +1258,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1227,13 +1275,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1244,13 +1292,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1261,13 +1309,81 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>56136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>56164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>56211</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>56244</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2023.xlsx
+++ b/Tbill_Returns_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -133,6 +133,48 @@
     <t>23 Aug, 2023</t>
   </si>
   <si>
+    <t>30 Aug, 2023</t>
+  </si>
+  <si>
+    <t>06 Sep, 2023</t>
+  </si>
+  <si>
+    <t>13 Sep, 2023</t>
+  </si>
+  <si>
+    <t>20 Sep, 2023</t>
+  </si>
+  <si>
+    <t>27 Sep, 2023</t>
+  </si>
+  <si>
+    <t>04 Oct, 2023</t>
+  </si>
+  <si>
+    <t>11 Oct, 2023</t>
+  </si>
+  <si>
+    <t>18 Oct, 2023</t>
+  </si>
+  <si>
+    <t>25 Oct, 2023</t>
+  </si>
+  <si>
+    <t>01 Nov, 2023</t>
+  </si>
+  <si>
+    <t>08 Nov, 2023</t>
+  </si>
+  <si>
+    <t>15 Nov, 2023</t>
+  </si>
+  <si>
+    <t>22 Nov, 2023</t>
+  </si>
+  <si>
+    <t>29 Nov, 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.3571%</t>
   </si>
   <si>
@@ -229,6 +271,45 @@
     <t xml:space="preserve"> 6.8569%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.8001%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8474%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8548%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8648%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8640%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8847%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8930%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9349%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9325%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9221%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9374%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9474%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9599%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.7801%</t>
   </si>
   <si>
@@ -331,6 +412,48 @@
     <t xml:space="preserve"> 7.0400%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 7.0200%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0243%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0494%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0671%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0778%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0999%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1279%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1372%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1374%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1376%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1068%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0987%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1199%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1554%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9249%</t>
   </si>
   <si>
@@ -431,6 +554,48 @@
   </si>
   <si>
     <t xml:space="preserve"> 7.0548%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0298%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0300%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0599%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0890%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.0846%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1306%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1450%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1400%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1600%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1598%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1489%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1297%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1497%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1476%</t>
   </si>
 </sst>
 </file>
@@ -788,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,13 +984,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -836,13 +1001,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -853,13 +1018,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -870,13 +1035,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -887,13 +1052,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -904,13 +1069,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -921,13 +1086,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -938,13 +1103,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -955,13 +1120,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -972,13 +1137,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -989,13 +1154,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1006,13 +1171,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1023,10 +1188,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1037,13 +1202,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1054,13 +1219,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1071,13 +1236,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1088,13 +1253,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1105,13 +1270,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1122,13 +1287,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1139,13 +1304,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1156,13 +1321,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1173,13 +1338,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1190,13 +1355,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1207,13 +1372,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1224,13 +1389,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1241,13 +1406,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1258,13 +1423,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1275,13 +1440,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1292,13 +1457,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1309,13 +1474,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1326,13 +1491,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1343,13 +1508,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1360,13 +1525,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1377,13 +1542,251 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>56282</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>56320</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>56362</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>56398</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>56450</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>56489</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>56535</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
         <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>56583</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>56621</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>56664</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>56708</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>56741</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>56783</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>56816</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Tbill_Returns_2023.xlsx
+++ b/Tbill_Returns_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="209">
   <si>
     <t>Press Release ID</t>
   </si>
@@ -175,6 +175,18 @@
     <t>29 Nov, 2023</t>
   </si>
   <si>
+    <t>06 Dec, 2023</t>
+  </si>
+  <si>
+    <t>13 Dec, 2023</t>
+  </si>
+  <si>
+    <t>20 Dec, 2023</t>
+  </si>
+  <si>
+    <t>27 Dec, 2023</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.3571%</t>
   </si>
   <si>
@@ -310,6 +322,18 @@
     <t xml:space="preserve"> 6.9599%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.9549%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9781%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9441%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9300%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.7801%</t>
   </si>
   <si>
@@ -454,6 +478,15 @@
     <t xml:space="preserve"> 7.1554%</t>
   </si>
   <si>
+    <t xml:space="preserve"> 7.1690%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1939%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1387%</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.9249%</t>
   </si>
   <si>
@@ -596,6 +629,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 7.1476%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1585%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1899%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1101%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1300%</t>
   </si>
 </sst>
 </file>
@@ -953,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -984,13 +1029,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1001,13 +1046,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1018,13 +1063,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1035,13 +1080,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1052,13 +1097,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1069,13 +1114,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1086,13 +1131,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1103,13 +1148,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1120,13 +1165,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1137,13 +1182,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1154,13 +1199,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1171,13 +1216,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1188,10 +1233,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1202,13 +1247,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1219,13 +1264,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1236,13 +1281,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1253,13 +1298,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1270,13 +1315,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1287,13 +1332,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1304,13 +1349,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1321,13 +1366,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1338,13 +1383,13 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1355,13 +1400,13 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1372,13 +1417,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1389,13 +1434,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1406,13 +1451,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1423,13 +1468,13 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1440,13 +1485,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1457,13 +1502,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1474,13 +1519,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1491,13 +1536,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1508,13 +1553,13 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1525,13 +1570,13 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1542,13 +1587,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1559,13 +1604,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1576,13 +1621,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1593,13 +1638,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1610,13 +1655,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1627,13 +1672,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1644,13 +1689,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1661,13 +1706,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1678,13 +1723,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1695,13 +1740,13 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1712,13 +1757,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1729,13 +1774,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1746,13 +1791,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1763,13 +1808,13 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1780,13 +1825,81 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>56867</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>56920</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>56963</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>56996</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
